--- a/data/trans_orig/P14C21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F710BA-E6BC-4B63-BF47-9C88436DCF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD8E6B5-0A16-4910-8D24-D29B50FE3736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2923A142-5195-42BA-BD20-D013545DCBF6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{151747C6-9E4D-417D-846D-99119110E407}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
   <si>
     <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>68,62%</t>
   </si>
   <si>
-    <t>19,46%</t>
+    <t>32,5%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>38,19%</t>
+    <t>39,64%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>31,38%</t>
   </si>
   <si>
-    <t>80,54%</t>
+    <t>67,5%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>61,81%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,136 +131,139 @@
     <t>62,63%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>71,46%</t>
+    <t>64,81%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>18,8%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>42,49%</t>
+    <t>42,24%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>28,99%</t>
+    <t>28,09%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>47,83%</t>
+    <t>48,2%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>10,8%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -278,19 +281,19 @@
     <t>82,73%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>7,89%</t>
@@ -302,19 +305,19 @@
     <t>14,34%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>27,4%</t>
@@ -326,16 +329,16 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>16,09%</t>
+    <t>17,63%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -344,151 +347,154 @@
     <t>71,27%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>37,52%</t>
+    <t>43,24%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>9,01%</t>
+    <t>8,71%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>84,8%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -903,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1AF37D-7A42-4B2A-954C-A77C5236D7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2393754-31F2-4AA1-93F4-C94AC2CFDB73}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1505,13 +1511,13 @@
         <v>14868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -1520,13 +1526,13 @@
         <v>14868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,13 +1547,13 @@
         <v>1072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1556,13 +1562,13 @@
         <v>1813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1571,13 +1577,13 @@
         <v>2885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1639,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1645,13 +1651,13 @@
         <v>7092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -1660,13 +1666,13 @@
         <v>30542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -1675,13 +1681,13 @@
         <v>37634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,13 +1702,13 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1711,13 +1717,13 @@
         <v>5293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1726,13 +1732,13 @@
         <v>6158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,13 +1753,13 @@
         <v>3003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1762,13 +1768,13 @@
         <v>1083</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1777,13 +1783,13 @@
         <v>4086</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1845,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1851,13 +1857,13 @@
         <v>10804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -1866,13 +1872,13 @@
         <v>52517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -1881,13 +1887,13 @@
         <v>63321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1908,13 @@
         <v>2301</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -1917,13 +1923,13 @@
         <v>6459</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1932,13 +1938,13 @@
         <v>8760</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1959,13 @@
         <v>2056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1968,13 +1974,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -1983,13 +1989,13 @@
         <v>3061</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,13 +2063,13 @@
         <v>34081</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -2072,13 +2078,13 @@
         <v>153437</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -2087,13 +2093,13 @@
         <v>187518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2114,13 @@
         <v>5837</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2123,13 +2129,13 @@
         <v>29339</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2138,13 +2144,13 @@
         <v>35176</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2165,13 @@
         <v>7023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2174,13 +2180,13 @@
         <v>6321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2189,13 +2195,13 @@
         <v>13344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,7 +2257,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD8E6B5-0A16-4910-8D24-D29B50FE3736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C935882-5813-495C-8B08-7CFBAD34AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{151747C6-9E4D-417D-846D-99119110E407}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D612D3D-1DE0-4D51-A5C0-BDDDD459CB59}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
-  <si>
-    <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
+  <si>
+    <t>Población según el tiempo de diagnóstico del migrañas en 2016 (Tasa respuesta: 3,32%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -83,13 +83,13 @@
     <t>68,62%</t>
   </si>
   <si>
-    <t>32,5%</t>
+    <t>32,59%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>39,64%</t>
+    <t>38,81%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>31,38%</t>
   </si>
   <si>
-    <t>67,5%</t>
+    <t>67,41%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>60,36%</t>
+    <t>61,19%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,103 +125,103 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>64,81%</t>
+    <t>64,38%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>17,52%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>42,24%</t>
+    <t>40,43%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>28,09%</t>
+    <t>29,98%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>51,8%</t>
+    <t>52,33%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -230,115 +230,115 @@
     <t>24,6%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>48,2%</t>
+    <t>47,67%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>10,82%</t>
+    <t>10,99%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>36,34%</t>
+    <t>46,23%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>64,68%</t>
+    <t>64,72%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>17,63%</t>
+    <t>15,09%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -347,154 +347,148 @@
     <t>71,27%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>43,24%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>41,48%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>8,71%</t>
+    <t>11,37%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -909,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2393754-31F2-4AA1-93F4-C94AC2CFDB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A385D99-1178-4F4D-8240-19CBAC68448E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1995,7 +1989,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2057,13 @@
         <v>34081</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -2078,13 +2072,13 @@
         <v>153437</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -2093,13 +2087,13 @@
         <v>187518</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2108,13 @@
         <v>5837</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2129,13 +2123,13 @@
         <v>29339</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2144,13 +2138,13 @@
         <v>35176</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2159,13 @@
         <v>7023</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2180,13 +2174,13 @@
         <v>6321</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2195,13 +2189,13 @@
         <v>13344</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2251,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
